--- a/Code/Results/Cases/Case_5_139/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_139/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.685293837901327</v>
+        <v>1.045634197174252</v>
       </c>
       <c r="C2">
-        <v>0.5505962226376084</v>
+        <v>0.275542105873825</v>
       </c>
       <c r="D2">
-        <v>0.05707114141564062</v>
+        <v>0.03046775130748358</v>
       </c>
       <c r="E2">
-        <v>0.04232504345364807</v>
+        <v>0.1124537920805</v>
       </c>
       <c r="F2">
-        <v>0.4645534327011234</v>
+        <v>0.7163731155385165</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2384559972619549</v>
+        <v>0.6502193167962744</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1583778237026081</v>
+        <v>0.2034208097478185</v>
       </c>
       <c r="M2">
-        <v>0.4424407602844695</v>
+        <v>0.2252972918433827</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.306747310070222</v>
+        <v>2.464290182500434</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.335864831880542</v>
+        <v>0.9366361524037643</v>
       </c>
       <c r="C3">
-        <v>0.4970164162495507</v>
+        <v>0.2575815738631491</v>
       </c>
       <c r="D3">
-        <v>0.05151915905208426</v>
+        <v>0.02857376532227107</v>
       </c>
       <c r="E3">
-        <v>0.04437603156745606</v>
+        <v>0.1136927504555906</v>
       </c>
       <c r="F3">
-        <v>0.4366586774553056</v>
+        <v>0.7173328932413128</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2496342371940585</v>
+        <v>0.6606873729560725</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1439379038489221</v>
+        <v>0.2008182403035406</v>
       </c>
       <c r="M3">
-        <v>0.3851351855298759</v>
+        <v>0.2083546590957894</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.263480372755723</v>
+        <v>2.482262635119852</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.1215411285649</v>
+        <v>0.8696382720132192</v>
       </c>
       <c r="C4">
-        <v>0.4641031031648879</v>
+        <v>0.2464920295393256</v>
       </c>
       <c r="D4">
-        <v>0.04810627193053563</v>
+        <v>0.02740426704868071</v>
       </c>
       <c r="E4">
-        <v>0.04570062178594214</v>
+        <v>0.1144972361491424</v>
       </c>
       <c r="F4">
-        <v>0.4207861709168981</v>
+        <v>0.7184973022593297</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2574524329503802</v>
+        <v>0.6675917603935879</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1352576492656468</v>
+        <v>0.1993230431602839</v>
       </c>
       <c r="M4">
-        <v>0.3500554453204643</v>
+        <v>0.1979837443195791</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.241064902384778</v>
+        <v>2.495242534327303</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.034230400477043</v>
+        <v>0.8423195618109389</v>
       </c>
       <c r="C5">
-        <v>0.4506830914837394</v>
+        <v>0.2419577229974834</v>
       </c>
       <c r="D5">
-        <v>0.04671417063561734</v>
+        <v>0.02692606250356988</v>
       </c>
       <c r="E5">
-        <v>0.04625660802379017</v>
+        <v>0.1148360884150527</v>
       </c>
       <c r="F5">
-        <v>0.4146152198749462</v>
+        <v>0.7191162298728386</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2608682733734113</v>
+        <v>0.6705251319483203</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1317640559420994</v>
+        <v>0.1987396368325562</v>
       </c>
       <c r="M5">
-        <v>0.3357812221443979</v>
+        <v>0.1937658041536707</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.232917723474017</v>
+        <v>2.501020252061565</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.019733390673196</v>
+        <v>0.8377823638057293</v>
       </c>
       <c r="C6">
-        <v>0.4484541465941447</v>
+        <v>0.2412038937217744</v>
       </c>
       <c r="D6">
-        <v>0.04648292427423684</v>
+        <v>0.02684655980055339</v>
       </c>
       <c r="E6">
-        <v>0.04634990189160437</v>
+        <v>0.1148930204348664</v>
       </c>
       <c r="F6">
-        <v>0.4136079702460407</v>
+        <v>0.7192277193780114</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2614490649456869</v>
+        <v>0.6710194457080902</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1311864989724896</v>
+        <v>0.1986443283784638</v>
       </c>
       <c r="M6">
-        <v>0.3334121121509313</v>
+        <v>0.1930659269799335</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.231622925559606</v>
+        <v>2.502009108945728</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.120363549686488</v>
+        <v>0.8692699069517857</v>
       </c>
       <c r="C7">
-        <v>0.4639221516306122</v>
+        <v>0.2464309395641067</v>
       </c>
       <c r="D7">
-        <v>0.04808750333614142</v>
+        <v>0.02739782435102711</v>
       </c>
       <c r="E7">
-        <v>0.04570805466746641</v>
+        <v>0.1145017613998934</v>
       </c>
       <c r="F7">
-        <v>0.4207017674605069</v>
+        <v>0.7185050648335292</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2574975825973169</v>
+        <v>0.6676308361035446</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1352103605214054</v>
+        <v>0.199315070207625</v>
       </c>
       <c r="M7">
-        <v>0.3498628600858993</v>
+        <v>0.1979268257804065</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.240951101600686</v>
+        <v>2.495318478485046</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.564745305811016</v>
+        <v>1.008067751678652</v>
       </c>
       <c r="C8">
-        <v>0.5321226654033353</v>
+        <v>0.2693622887165077</v>
       </c>
       <c r="D8">
-        <v>0.05515742953470237</v>
+        <v>0.02981608920237733</v>
       </c>
       <c r="E8">
-        <v>0.04301854838398012</v>
+        <v>0.1128719109717631</v>
       </c>
       <c r="F8">
-        <v>0.4546635113220248</v>
+        <v>0.7165845669065618</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2421058087186907</v>
+        <v>0.653729616116415</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1533584512291313</v>
+        <v>0.2025021387519388</v>
       </c>
       <c r="M8">
-        <v>0.4226562612458054</v>
+        <v>0.2194489965804109</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.290932573855429</v>
+        <v>2.470083019476675</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.439435692740744</v>
+        <v>1.279610971120462</v>
       </c>
       <c r="C9">
-        <v>0.6659347454433941</v>
+        <v>0.3138304408695376</v>
       </c>
       <c r="D9">
-        <v>0.06900701709094648</v>
+        <v>0.03450493096153906</v>
       </c>
       <c r="E9">
-        <v>0.03827204247289651</v>
+        <v>0.1100223379822185</v>
       </c>
       <c r="F9">
-        <v>0.5320977309104862</v>
+        <v>0.7173913841943005</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2199825087351712</v>
+        <v>0.630260642262364</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1905703448249128</v>
+        <v>0.2095659013155498</v>
       </c>
       <c r="M9">
-        <v>0.5665244032096766</v>
+        <v>0.2618979411096802</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.424573511413996</v>
+        <v>2.436061116283099</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.086297640650912</v>
+        <v>1.478660359083108</v>
       </c>
       <c r="C10">
-        <v>0.7645866992908452</v>
+        <v>0.3461852634428055</v>
       </c>
       <c r="D10">
-        <v>0.0791997775506843</v>
+        <v>0.03791609509145388</v>
       </c>
       <c r="E10">
-        <v>0.03512028995719496</v>
+        <v>0.1081390733635226</v>
       </c>
       <c r="F10">
-        <v>0.5968937874782014</v>
+        <v>0.7207869119655257</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2093552287489011</v>
+        <v>0.615338292680061</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2191215558903963</v>
+        <v>0.2152504419322554</v>
       </c>
       <c r="M10">
-        <v>0.6733325576338913</v>
+        <v>0.2932246992110024</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.548466426446623</v>
+        <v>2.420542698247374</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.382034670676319</v>
+        <v>1.569102509158256</v>
       </c>
       <c r="C11">
-        <v>0.8096127894982601</v>
+        <v>0.3608336005262629</v>
       </c>
       <c r="D11">
-        <v>0.08384699216517788</v>
+        <v>0.03946036856835633</v>
       </c>
       <c r="E11">
-        <v>0.03376255970064035</v>
+        <v>0.1073277917433326</v>
       </c>
       <c r="F11">
-        <v>0.6283980577083099</v>
+        <v>0.7229435143738883</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.2059123729809578</v>
+        <v>0.6090554886343504</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2324264498801512</v>
+        <v>0.2179436861985806</v>
       </c>
       <c r="M11">
-        <v>0.7222659755799299</v>
+        <v>0.3075046140601927</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.611363978804917</v>
+        <v>2.41555173266633</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.494283012935171</v>
+        <v>1.603333855341759</v>
       </c>
       <c r="C12">
-        <v>0.8266908495258747</v>
+        <v>0.3663702309458756</v>
       </c>
       <c r="D12">
-        <v>0.08560884715920025</v>
+        <v>0.04004404255829286</v>
       </c>
       <c r="E12">
-        <v>0.03325964584597152</v>
+        <v>0.1070270982521404</v>
       </c>
       <c r="F12">
-        <v>0.6406474389466297</v>
+        <v>0.7238483971279948</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.2048241187155675</v>
+        <v>0.6067492080171277</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2375149515509634</v>
+        <v>0.2189789422516668</v>
       </c>
       <c r="M12">
-        <v>0.7408546317375908</v>
+        <v>0.3129160324503175</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.636207753089479</v>
+        <v>2.413960055005589</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.470096010941575</v>
+        <v>1.595962313461996</v>
       </c>
       <c r="C13">
-        <v>0.8230114481939665</v>
+        <v>0.3651782848843936</v>
       </c>
       <c r="D13">
-        <v>0.08522929947509539</v>
+        <v>0.03991838775980483</v>
       </c>
       <c r="E13">
-        <v>0.03336745299603827</v>
+        <v>0.1070915681119611</v>
       </c>
       <c r="F13">
-        <v>0.637994646201733</v>
+        <v>0.7236495870778299</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.2050486531406364</v>
+        <v>0.6072426622645466</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2364167396820847</v>
+        <v>0.2187552979637388</v>
       </c>
       <c r="M13">
-        <v>0.7368484749544351</v>
+        <v>0.3117504165152951</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.630810143520506</v>
+        <v>2.414289571086215</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.391263933515745</v>
+        <v>1.571919096420288</v>
       </c>
       <c r="C14">
-        <v>0.8110172197031886</v>
+        <v>0.3612893121557477</v>
       </c>
       <c r="D14">
-        <v>0.08399189651989047</v>
+        <v>0.03950841018987461</v>
       </c>
       <c r="E14">
-        <v>0.03372095785879936</v>
+        <v>0.107302922874819</v>
       </c>
       <c r="F14">
-        <v>0.6293992541596367</v>
+        <v>0.7230161901957217</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.2058184309652056</v>
+        <v>0.6088642877646713</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2328440493488273</v>
+        <v>0.2180285493234493</v>
       </c>
       <c r="M14">
-        <v>0.723794046897055</v>
+        <v>0.3079497376315743</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.613386817882514</v>
+        <v>2.415414801287824</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.343012214778753</v>
+        <v>1.557189646414656</v>
       </c>
       <c r="C15">
-        <v>0.8036742051611725</v>
+        <v>0.3589058436480457</v>
       </c>
       <c r="D15">
-        <v>0.08323423630828586</v>
+        <v>0.03925714171094086</v>
       </c>
       <c r="E15">
-        <v>0.03393896129385732</v>
+        <v>0.1074332327105663</v>
       </c>
       <c r="F15">
-        <v>0.6241767820650921</v>
+        <v>0.722639712360639</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.206318479761773</v>
+        <v>0.6098670773259265</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2306623589844747</v>
+        <v>0.2175853966418231</v>
       </c>
       <c r="M15">
-        <v>0.71580574478579</v>
+        <v>0.305622214989512</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.602850775291216</v>
+        <v>2.416142909029674</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.06700415606673</v>
+        <v>1.472747453689919</v>
       </c>
       <c r="C16">
-        <v>0.7616476556157181</v>
+        <v>0.3452265246717445</v>
       </c>
       <c r="D16">
-        <v>0.07889632782456601</v>
+        <v>0.03781501980694912</v>
       </c>
       <c r="E16">
-        <v>0.03521057556823659</v>
+        <v>0.1081930056654929</v>
       </c>
       <c r="F16">
-        <v>0.5948780473242365</v>
+        <v>0.7206583064177181</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.2096095180688948</v>
+        <v>0.6157590765512531</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2182588161506089</v>
+        <v>0.2150765873835638</v>
       </c>
       <c r="M16">
-        <v>0.6701423478540747</v>
+        <v>0.2922920373933664</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.544494663864754</v>
+        <v>2.420910564972672</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.898092418202793</v>
+        <v>1.420916340722727</v>
       </c>
       <c r="C17">
-        <v>0.7359081284861873</v>
+        <v>0.3368165494905782</v>
       </c>
       <c r="D17">
-        <v>0.07623822067959196</v>
+        <v>0.03692838484893457</v>
       </c>
       <c r="E17">
-        <v>0.03601034631504574</v>
+        <v>0.1086707284572508</v>
       </c>
       <c r="F17">
-        <v>0.5774428007662706</v>
+        <v>0.7195996765182784</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2119954653369405</v>
+        <v>0.6195032256755582</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2107340017011268</v>
+        <v>0.2135649658057019</v>
       </c>
       <c r="M17">
-        <v>0.6422240261446674</v>
+        <v>0.2841216905597932</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.510428595920558</v>
+        <v>2.424365753637574</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.801074782979754</v>
+        <v>1.39109454764872</v>
       </c>
       <c r="C18">
-        <v>0.7211170351130534</v>
+        <v>0.3319727803993828</v>
       </c>
       <c r="D18">
-        <v>0.07471029822955444</v>
+        <v>0.03641771356466705</v>
       </c>
       <c r="E18">
-        <v>0.03647748963447528</v>
+        <v>0.1089497782171074</v>
       </c>
       <c r="F18">
-        <v>0.5676036357993581</v>
+        <v>0.7190483678259056</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.2134977935230573</v>
+        <v>0.6217043245301817</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2064354471623062</v>
+        <v>0.2127056252984971</v>
       </c>
       <c r="M18">
-        <v>0.6261981255626097</v>
+        <v>0.279425089466443</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.491444591292947</v>
+        <v>2.426547727489066</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.768248258322444</v>
+        <v>1.380995755283436</v>
       </c>
       <c r="C19">
-        <v>0.7161111792765951</v>
+        <v>0.3303316437249748</v>
       </c>
       <c r="D19">
-        <v>0.0741931172244108</v>
+        <v>0.03624468942756209</v>
       </c>
       <c r="E19">
-        <v>0.03663687320913001</v>
+        <v>0.1090449944510394</v>
       </c>
       <c r="F19">
-        <v>0.5643039341680236</v>
+        <v>0.7188715879432621</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.2140283322023855</v>
+        <v>0.6224577417810444</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2049849637403725</v>
+        <v>0.212416404286401</v>
       </c>
       <c r="M19">
-        <v>0.6207772637651132</v>
+        <v>0.2778353846108885</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.485119176680115</v>
+        <v>2.427319909992775</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.916058965575644</v>
+        <v>1.426434889908307</v>
       </c>
       <c r="C20">
-        <v>0.7386466937454372</v>
+        <v>0.337712488296404</v>
       </c>
       <c r="D20">
-        <v>0.07652107852565848</v>
+        <v>0.03702284157967028</v>
       </c>
       <c r="E20">
-        <v>0.03592446866657972</v>
+        <v>0.1086194315536604</v>
       </c>
       <c r="F20">
-        <v>0.579279044067043</v>
+        <v>0.7197064077778847</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.2117279154127587</v>
+        <v>0.6190997305470098</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2115319431279801</v>
+        <v>0.2137248351101988</v>
       </c>
       <c r="M20">
-        <v>0.645192607153156</v>
+        <v>0.2849911536357439</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.513991264765622</v>
+        <v>2.423977792118563</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.414411399792812</v>
+        <v>1.578981651589174</v>
       </c>
       <c r="C21">
-        <v>0.8145394121742981</v>
+        <v>0.3624318817693393</v>
       </c>
       <c r="D21">
-        <v>0.0843552913565162</v>
+        <v>0.03962886089509965</v>
       </c>
       <c r="E21">
-        <v>0.03361681769636449</v>
+        <v>0.1072406659582483</v>
       </c>
       <c r="F21">
-        <v>0.631915029377808</v>
+        <v>0.7231998380498652</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.2055863522790951</v>
+        <v>0.6083859975027366</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2338920329914629</v>
+        <v>0.218241595920702</v>
       </c>
       <c r="M21">
-        <v>0.7276267831053005</v>
+        <v>0.3090659848330475</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.618475914984089</v>
+        <v>2.415076191547712</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.741648600364499</v>
+        <v>1.678579074148104</v>
       </c>
       <c r="C22">
-        <v>0.8643042005837174</v>
+        <v>0.3785268095889762</v>
       </c>
       <c r="D22">
-        <v>0.08948767448637085</v>
+        <v>0.04132556677707555</v>
       </c>
       <c r="E22">
-        <v>0.03217423724395463</v>
+        <v>0.1063775688458906</v>
       </c>
       <c r="F22">
-        <v>0.6681917864105884</v>
+        <v>0.7259973379648983</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.2028364438615355</v>
+        <v>0.6018088509698885</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.248800830593666</v>
+        <v>0.2212832007076031</v>
       </c>
       <c r="M22">
-        <v>0.7818486932163253</v>
+        <v>0.3248230270383274</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.692786577803219</v>
+        <v>2.410997551451743</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.566838986191613</v>
+        <v>1.625431870907221</v>
       </c>
       <c r="C23">
-        <v>0.8377265317420211</v>
+        <v>0.3699422913196599</v>
       </c>
       <c r="D23">
-        <v>0.08674710792976725</v>
+        <v>0.04042060650529322</v>
       </c>
       <c r="E23">
-        <v>0.03293806391507559</v>
+        <v>0.1068347460142145</v>
       </c>
       <c r="F23">
-        <v>0.6486488178450003</v>
+        <v>0.7244571235114847</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.2041830868843846</v>
+        <v>0.6052802543888305</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2408150791508348</v>
+        <v>0.2196516531520558</v>
       </c>
       <c r="M23">
-        <v>0.7528746129372834</v>
+        <v>0.3164112064830888</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.652544357734143</v>
+        <v>2.413014992727113</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.907936006529155</v>
+        <v>1.423940026560786</v>
       </c>
       <c r="C24">
-        <v>0.7374085673545778</v>
+        <v>0.3373074616351062</v>
       </c>
       <c r="D24">
-        <v>0.07639319772851394</v>
+        <v>0.03698014059573751</v>
       </c>
       <c r="E24">
-        <v>0.03596327109741115</v>
+        <v>0.1086426091755779</v>
       </c>
       <c r="F24">
-        <v>0.5784483055854679</v>
+        <v>0.719657976069783</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2118484690452931</v>
+        <v>0.6192819995162608</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2111711083098839</v>
+        <v>0.2136525279464507</v>
       </c>
       <c r="M24">
-        <v>0.6438504353633832</v>
+        <v>0.2845980673648185</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.512378716502155</v>
+        <v>2.424152580487174</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.202238872432645</v>
+        <v>1.206226402676577</v>
       </c>
       <c r="C25">
-        <v>0.6296982348124516</v>
+        <v>0.3018553224590903</v>
       </c>
       <c r="D25">
-        <v>0.06525930391721602</v>
+        <v>0.03324231280945611</v>
       </c>
       <c r="E25">
-        <v>0.03949822786779533</v>
+        <v>0.1107562205917422</v>
       </c>
       <c r="F25">
-        <v>0.5098607392491417</v>
+        <v>0.7166820004923764</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2250337797792028</v>
+        <v>0.6362028030439113</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1803077194706333</v>
+        <v>0.2075679747205257</v>
       </c>
       <c r="M25">
-        <v>0.5274422956805083</v>
+        <v>0.2503892155922003</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.384210439911044</v>
+        <v>2.44360417470611</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_139/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_139/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.045634197174252</v>
+        <v>2.68529383790127</v>
       </c>
       <c r="C2">
-        <v>0.275542105873825</v>
+        <v>0.5505962226376937</v>
       </c>
       <c r="D2">
-        <v>0.03046775130748358</v>
+        <v>0.05707114141585379</v>
       </c>
       <c r="E2">
-        <v>0.1124537920805</v>
+        <v>0.04232504345365751</v>
       </c>
       <c r="F2">
-        <v>0.7163731155385165</v>
+        <v>0.4645534327011163</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.6502193167962744</v>
+        <v>0.2384559972619478</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2034208097478185</v>
+        <v>0.1583778237025584</v>
       </c>
       <c r="M2">
-        <v>0.2252972918433827</v>
+        <v>0.4424407602844624</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.464290182500434</v>
+        <v>1.306747310070222</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9366361524037643</v>
+        <v>2.335864831880599</v>
       </c>
       <c r="C3">
-        <v>0.2575815738631491</v>
+        <v>0.4970164162494086</v>
       </c>
       <c r="D3">
-        <v>0.02857376532227107</v>
+        <v>0.05151915905208426</v>
       </c>
       <c r="E3">
-        <v>0.1136927504555906</v>
+        <v>0.04437603156742864</v>
       </c>
       <c r="F3">
-        <v>0.7173328932413128</v>
+        <v>0.4366586774553198</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.6606873729560725</v>
+        <v>0.2496342371940692</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2008182403035406</v>
+        <v>0.1439379038489008</v>
       </c>
       <c r="M3">
-        <v>0.2083546590957894</v>
+        <v>0.3851351855298972</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.482262635119852</v>
+        <v>1.263480372755751</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8696382720132192</v>
+        <v>2.121541128564957</v>
       </c>
       <c r="C4">
-        <v>0.2464920295393256</v>
+        <v>0.4641031031648595</v>
       </c>
       <c r="D4">
-        <v>0.02740426704868071</v>
+        <v>0.04810627193065642</v>
       </c>
       <c r="E4">
-        <v>0.1144972361491424</v>
+        <v>0.04570062178593837</v>
       </c>
       <c r="F4">
-        <v>0.7184973022593297</v>
+        <v>0.4207861709168839</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.6675917603935879</v>
+        <v>0.2574524329503767</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1993230431602839</v>
+        <v>0.1352576492656965</v>
       </c>
       <c r="M4">
-        <v>0.1979837443195791</v>
+        <v>0.350055445320443</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.495242534327303</v>
+        <v>1.241064902384906</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8423195618109389</v>
+        <v>2.034230400477156</v>
       </c>
       <c r="C5">
-        <v>0.2419577229974834</v>
+        <v>0.450683091483711</v>
       </c>
       <c r="D5">
-        <v>0.02692606250356988</v>
+        <v>0.04671417063575234</v>
       </c>
       <c r="E5">
-        <v>0.1148360884150527</v>
+        <v>0.04625660802378639</v>
       </c>
       <c r="F5">
-        <v>0.7191162298728386</v>
+        <v>0.4146152198749391</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.6705251319483203</v>
+        <v>0.2608682733734113</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1987396368325562</v>
+        <v>0.1317640559421065</v>
       </c>
       <c r="M5">
-        <v>0.1937658041536707</v>
+        <v>0.3357812221443908</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.501020252061565</v>
+        <v>1.232917723474074</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8377823638057293</v>
+        <v>2.019733390672968</v>
       </c>
       <c r="C6">
-        <v>0.2412038937217744</v>
+        <v>0.4484541465938889</v>
       </c>
       <c r="D6">
-        <v>0.02684655980055339</v>
+        <v>0.04648292427446421</v>
       </c>
       <c r="E6">
-        <v>0.1148930204348664</v>
+        <v>0.04634990189159982</v>
       </c>
       <c r="F6">
-        <v>0.7192277193780114</v>
+        <v>0.4136079702460549</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.6710194457080902</v>
+        <v>0.2614490649456975</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1986443283784638</v>
+        <v>0.1311864989725251</v>
       </c>
       <c r="M6">
-        <v>0.1930659269799335</v>
+        <v>0.3334121121509313</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.502009108945728</v>
+        <v>1.23162292555962</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8692699069517857</v>
+        <v>2.120363549686317</v>
       </c>
       <c r="C7">
-        <v>0.2464309395641067</v>
+        <v>0.4639221516301575</v>
       </c>
       <c r="D7">
-        <v>0.02739782435102711</v>
+        <v>0.04808750333636169</v>
       </c>
       <c r="E7">
-        <v>0.1145017613998934</v>
+        <v>0.04570805466747685</v>
       </c>
       <c r="F7">
-        <v>0.7185050648335292</v>
+        <v>0.4207017674605211</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.6676308361035446</v>
+        <v>0.2574975825973453</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.199315070207625</v>
+        <v>0.1352103605213841</v>
       </c>
       <c r="M7">
-        <v>0.1979268257804065</v>
+        <v>0.3498628600859064</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.495318478485046</v>
+        <v>1.2409511016007</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.008067751678652</v>
+        <v>2.564745305810789</v>
       </c>
       <c r="C8">
-        <v>0.2693622887165077</v>
+        <v>0.5321226654033353</v>
       </c>
       <c r="D8">
-        <v>0.02981608920237733</v>
+        <v>0.05515742953474501</v>
       </c>
       <c r="E8">
-        <v>0.1128719109717631</v>
+        <v>0.04301854838394903</v>
       </c>
       <c r="F8">
-        <v>0.7165845669065618</v>
+        <v>0.4546635113220105</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.653729616116415</v>
+        <v>0.2421058087186658</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2025021387519388</v>
+        <v>0.1533584512291171</v>
       </c>
       <c r="M8">
-        <v>0.2194489965804109</v>
+        <v>0.422656261245784</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.470083019476675</v>
+        <v>1.290932573855258</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.279610971120462</v>
+        <v>3.439435692740915</v>
       </c>
       <c r="C9">
-        <v>0.3138304408695376</v>
+        <v>0.6659347454436215</v>
       </c>
       <c r="D9">
-        <v>0.03450493096153906</v>
+        <v>0.06900701709096779</v>
       </c>
       <c r="E9">
-        <v>0.1100223379822185</v>
+        <v>0.03827204247294169</v>
       </c>
       <c r="F9">
-        <v>0.7173913841943005</v>
+        <v>0.5320977309105004</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.630260642262364</v>
+        <v>0.2199825087351535</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2095659013155498</v>
+        <v>0.190570344824863</v>
       </c>
       <c r="M9">
-        <v>0.2618979411096802</v>
+        <v>0.5665244032096837</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.436061116283099</v>
+        <v>1.424573511413939</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.478660359083108</v>
+        <v>4.086297640650798</v>
       </c>
       <c r="C10">
-        <v>0.3461852634428055</v>
+        <v>0.7645866992910726</v>
       </c>
       <c r="D10">
-        <v>0.03791609509145388</v>
+        <v>0.07919977755057062</v>
       </c>
       <c r="E10">
-        <v>0.1081390733635226</v>
+        <v>0.03512028995719585</v>
       </c>
       <c r="F10">
-        <v>0.7207869119655257</v>
+        <v>0.5968937874781872</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.615338292680061</v>
+        <v>0.209355228748894</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2152504419322554</v>
+        <v>0.2191215558903821</v>
       </c>
       <c r="M10">
-        <v>0.2932246992110024</v>
+        <v>0.6733325576339126</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.420542698247374</v>
+        <v>1.548466426446566</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.569102509158256</v>
+        <v>4.382034670676148</v>
       </c>
       <c r="C11">
-        <v>0.3608336005262629</v>
+        <v>0.8096127894982601</v>
       </c>
       <c r="D11">
-        <v>0.03946036856835633</v>
+        <v>0.08384699216540525</v>
       </c>
       <c r="E11">
-        <v>0.1073277917433326</v>
+        <v>0.0337625597006368</v>
       </c>
       <c r="F11">
-        <v>0.7229435143738883</v>
+        <v>0.6283980577083241</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6090554886343504</v>
+        <v>0.2059123729809542</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2179436861985806</v>
+        <v>0.2324264498801512</v>
       </c>
       <c r="M11">
-        <v>0.3075046140601927</v>
+        <v>0.7222659755799228</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.41555173266633</v>
+        <v>1.611363978804974</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.603333855341759</v>
+        <v>4.494283012935227</v>
       </c>
       <c r="C12">
-        <v>0.3663702309458756</v>
+        <v>0.8266908495259599</v>
       </c>
       <c r="D12">
-        <v>0.04004404255829286</v>
+        <v>0.08560884715920736</v>
       </c>
       <c r="E12">
-        <v>0.1070270982521404</v>
+        <v>0.0332596458459441</v>
       </c>
       <c r="F12">
-        <v>0.7238483971279948</v>
+        <v>0.6406474389466439</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.6067492080171277</v>
+        <v>0.2048241187155675</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2189789422516668</v>
+        <v>0.2375149515508923</v>
       </c>
       <c r="M12">
-        <v>0.3129160324503175</v>
+        <v>0.7408546317376192</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.413960055005589</v>
+        <v>1.636207753089479</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.595962313461996</v>
+        <v>4.470096010941518</v>
       </c>
       <c r="C13">
-        <v>0.3651782848843936</v>
+        <v>0.8230114481937392</v>
       </c>
       <c r="D13">
-        <v>0.03991838775980483</v>
+        <v>0.08522929947492486</v>
       </c>
       <c r="E13">
-        <v>0.1070915681119611</v>
+        <v>0.0333674529960194</v>
       </c>
       <c r="F13">
-        <v>0.7236495870778299</v>
+        <v>0.6379946462017188</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.6072426622645466</v>
+        <v>0.2050486531406328</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2187552979637388</v>
+        <v>0.2364167396820704</v>
       </c>
       <c r="M13">
-        <v>0.3117504165152951</v>
+        <v>0.7368484749544351</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.414289571086215</v>
+        <v>1.630810143520506</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.571919096420288</v>
+        <v>4.391263933515631</v>
       </c>
       <c r="C14">
-        <v>0.3612893121557477</v>
+        <v>0.8110172197032171</v>
       </c>
       <c r="D14">
-        <v>0.03950841018987461</v>
+        <v>0.0839918965199189</v>
       </c>
       <c r="E14">
-        <v>0.107302922874819</v>
+        <v>0.0337209578588078</v>
       </c>
       <c r="F14">
-        <v>0.7230161901957217</v>
+        <v>0.6293992541596225</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.6088642877646713</v>
+        <v>0.205818430965202</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2180285493234493</v>
+        <v>0.2328440493488131</v>
       </c>
       <c r="M14">
-        <v>0.3079497376315743</v>
+        <v>0.7237940468970621</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.415414801287824</v>
+        <v>1.613386817882486</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.557189646414656</v>
+        <v>4.343012214778753</v>
       </c>
       <c r="C15">
-        <v>0.3589058436480457</v>
+        <v>0.8036742051608599</v>
       </c>
       <c r="D15">
-        <v>0.03925714171094086</v>
+        <v>0.08323423630845639</v>
       </c>
       <c r="E15">
-        <v>0.1074332327105663</v>
+        <v>0.03393896129386942</v>
       </c>
       <c r="F15">
-        <v>0.722639712360639</v>
+        <v>0.6241767820650992</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.6098670773259265</v>
+        <v>0.2063184797617801</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2175853966418231</v>
+        <v>0.2306623589844747</v>
       </c>
       <c r="M15">
-        <v>0.305622214989512</v>
+        <v>0.7158057447857828</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.416142909029674</v>
+        <v>1.602850775291131</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.472747453689919</v>
+        <v>4.067004156066844</v>
       </c>
       <c r="C16">
-        <v>0.3452265246717445</v>
+        <v>0.7616476556156329</v>
       </c>
       <c r="D16">
-        <v>0.03781501980694912</v>
+        <v>0.07889632782449496</v>
       </c>
       <c r="E16">
-        <v>0.1081930056654929</v>
+        <v>0.03521057556824936</v>
       </c>
       <c r="F16">
-        <v>0.7206583064177181</v>
+        <v>0.5948780473242223</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.6157590765512531</v>
+        <v>0.2096095180688877</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2150765873835638</v>
+        <v>0.2182588161506658</v>
       </c>
       <c r="M16">
-        <v>0.2922920373933664</v>
+        <v>0.6701423478540747</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.420910564972672</v>
+        <v>1.544494663864754</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.420916340722727</v>
+        <v>3.89809241820285</v>
       </c>
       <c r="C17">
-        <v>0.3368165494905782</v>
+        <v>0.7359081284863294</v>
       </c>
       <c r="D17">
-        <v>0.03692838484893457</v>
+        <v>0.07623822067935748</v>
       </c>
       <c r="E17">
-        <v>0.1086707284572508</v>
+        <v>0.03601034631503042</v>
       </c>
       <c r="F17">
-        <v>0.7195996765182784</v>
+        <v>0.5774428007662706</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.6195032256755582</v>
+        <v>0.2119954653369369</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2135649658057019</v>
+        <v>0.2107340017010699</v>
       </c>
       <c r="M17">
-        <v>0.2841216905597932</v>
+        <v>0.642224026144703</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.424365753637574</v>
+        <v>1.51042859592053</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.39109454764872</v>
+        <v>3.801074782979811</v>
       </c>
       <c r="C18">
-        <v>0.3319727803993828</v>
+        <v>0.7211170351130249</v>
       </c>
       <c r="D18">
-        <v>0.03641771356466705</v>
+        <v>0.07471029822944075</v>
       </c>
       <c r="E18">
-        <v>0.1089497782171074</v>
+        <v>0.03647748963448949</v>
       </c>
       <c r="F18">
-        <v>0.7190483678259056</v>
+        <v>0.567603635799351</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.6217043245301817</v>
+        <v>0.2134977935230538</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2127056252984971</v>
+        <v>0.2064354471623489</v>
       </c>
       <c r="M18">
-        <v>0.279425089466443</v>
+        <v>0.6261981255626168</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.426547727489066</v>
+        <v>1.491444591292975</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.380995755283436</v>
+        <v>3.768248258322501</v>
       </c>
       <c r="C19">
-        <v>0.3303316437249748</v>
+        <v>0.7161111792767372</v>
       </c>
       <c r="D19">
-        <v>0.03624468942756209</v>
+        <v>0.07419311722440369</v>
       </c>
       <c r="E19">
-        <v>0.1090449944510394</v>
+        <v>0.03663687320912956</v>
       </c>
       <c r="F19">
-        <v>0.7188715879432621</v>
+        <v>0.5643039341680307</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.6224577417810444</v>
+        <v>0.2140283322023855</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.212416404286401</v>
+        <v>0.2049849637403582</v>
       </c>
       <c r="M19">
-        <v>0.2778353846108885</v>
+        <v>0.6207772637650848</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.427319909992775</v>
+        <v>1.48511917668003</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.426434889908307</v>
+        <v>3.916058965575701</v>
       </c>
       <c r="C20">
-        <v>0.337712488296404</v>
+        <v>0.7386466937454088</v>
       </c>
       <c r="D20">
-        <v>0.03702284157967028</v>
+        <v>0.07652107852572243</v>
       </c>
       <c r="E20">
-        <v>0.1086194315536604</v>
+        <v>0.03592446866658272</v>
       </c>
       <c r="F20">
-        <v>0.7197064077778847</v>
+        <v>0.579279044067043</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.6190997305470098</v>
+        <v>0.2117279154127374</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2137248351101988</v>
+        <v>0.2115319431280369</v>
       </c>
       <c r="M20">
-        <v>0.2849911536357439</v>
+        <v>0.6451926071531631</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.423977792118563</v>
+        <v>1.513991264765622</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.578981651589174</v>
+        <v>4.414411399792698</v>
       </c>
       <c r="C21">
-        <v>0.3624318817693393</v>
+        <v>0.8145394121740424</v>
       </c>
       <c r="D21">
-        <v>0.03962886089509965</v>
+        <v>0.08435529135669384</v>
       </c>
       <c r="E21">
-        <v>0.1072406659582483</v>
+        <v>0.0336168176963364</v>
       </c>
       <c r="F21">
-        <v>0.7231998380498652</v>
+        <v>0.631915029377808</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.6083859975027366</v>
+        <v>0.2055863522791128</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.218241595920702</v>
+        <v>0.2338920329914629</v>
       </c>
       <c r="M21">
-        <v>0.3090659848330475</v>
+        <v>0.7276267831052792</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.415076191547712</v>
+        <v>1.618475914984089</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.678579074148104</v>
+        <v>4.741648600364613</v>
       </c>
       <c r="C22">
-        <v>0.3785268095889762</v>
+        <v>0.8643042005841721</v>
       </c>
       <c r="D22">
-        <v>0.04132556677707555</v>
+        <v>0.08948767448636374</v>
       </c>
       <c r="E22">
-        <v>0.1063775688458906</v>
+        <v>0.03217423724395219</v>
       </c>
       <c r="F22">
-        <v>0.7259973379648983</v>
+        <v>0.6681917864105884</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.6018088509698885</v>
+        <v>0.202836443861532</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2212832007076031</v>
+        <v>0.2488008305936091</v>
       </c>
       <c r="M22">
-        <v>0.3248230270383274</v>
+        <v>0.7818486932163253</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.410997551451743</v>
+        <v>1.692786577803332</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.625431870907221</v>
+        <v>4.566838986191385</v>
       </c>
       <c r="C23">
-        <v>0.3699422913196599</v>
+        <v>0.8377265317419358</v>
       </c>
       <c r="D23">
-        <v>0.04042060650529322</v>
+        <v>0.0867471079297033</v>
       </c>
       <c r="E23">
-        <v>0.1068347460142145</v>
+        <v>0.03293806391507847</v>
       </c>
       <c r="F23">
-        <v>0.7244571235114847</v>
+        <v>0.6486488178450003</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.6052802543888305</v>
+        <v>0.2041830868843846</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2196516531520558</v>
+        <v>0.2408150791507211</v>
       </c>
       <c r="M23">
-        <v>0.3164112064830888</v>
+        <v>0.7528746129372692</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.413014992727113</v>
+        <v>1.652544357734143</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.423940026560786</v>
+        <v>3.907936006529383</v>
       </c>
       <c r="C24">
-        <v>0.3373074616351062</v>
+        <v>0.7374085673548052</v>
       </c>
       <c r="D24">
-        <v>0.03698014059573751</v>
+        <v>0.07639319772844999</v>
       </c>
       <c r="E24">
-        <v>0.1086426091755779</v>
+        <v>0.03596327109739728</v>
       </c>
       <c r="F24">
-        <v>0.719657976069783</v>
+        <v>0.578448305585475</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.6192819995162608</v>
+        <v>0.2118484690452895</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2136525279464507</v>
+        <v>0.2111711083097987</v>
       </c>
       <c r="M24">
-        <v>0.2845980673648185</v>
+        <v>0.6438504353633974</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.424152580487174</v>
+        <v>1.512378716502127</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.206226402676577</v>
+        <v>3.202238872432645</v>
       </c>
       <c r="C25">
-        <v>0.3018553224590903</v>
+        <v>0.6296982348121958</v>
       </c>
       <c r="D25">
-        <v>0.03324231280945611</v>
+        <v>0.06525930391708812</v>
       </c>
       <c r="E25">
-        <v>0.1107562205917422</v>
+        <v>0.0394982278678222</v>
       </c>
       <c r="F25">
-        <v>0.7166820004923764</v>
+        <v>0.5098607392491274</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.6362028030439113</v>
+        <v>0.225033779779217</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2075679747205257</v>
+        <v>0.180307719470612</v>
       </c>
       <c r="M25">
-        <v>0.2503892155922003</v>
+        <v>0.5274422956805367</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.44360417470611</v>
+        <v>1.384210439911129</v>
       </c>
     </row>
   </sheetData>
